--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ntng2-Lrrc4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ntng2-Lrrc4.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>14.96931633333333</v>
+        <v>10.15140533333333</v>
       </c>
       <c r="H2">
-        <v>44.907949</v>
+        <v>30.454216</v>
       </c>
       <c r="I2">
-        <v>0.521301883166304</v>
+        <v>0.4279451754041443</v>
       </c>
       <c r="J2">
-        <v>0.5213018831663041</v>
+        <v>0.4279451754041442</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.956596</v>
+        <v>1.695786666666667</v>
       </c>
       <c r="N2">
-        <v>5.869788</v>
+        <v>5.087359999999999</v>
       </c>
       <c r="O2">
-        <v>0.2233841747945733</v>
+        <v>0.1708240824160653</v>
       </c>
       <c r="P2">
-        <v>0.2233841747945733</v>
+        <v>0.1708240824160653</v>
       </c>
       <c r="Q2">
-        <v>29.28890446053467</v>
+        <v>17.21461781219555</v>
       </c>
       <c r="R2">
-        <v>263.600140144812</v>
+        <v>154.93156030976</v>
       </c>
       <c r="S2">
-        <v>0.1164505909899619</v>
+        <v>0.07310334191279506</v>
       </c>
       <c r="T2">
-        <v>0.1164505909899619</v>
+        <v>0.07310334191279505</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>14.96931633333333</v>
+        <v>10.15140533333333</v>
       </c>
       <c r="H3">
-        <v>44.907949</v>
+        <v>30.454216</v>
       </c>
       <c r="I3">
-        <v>0.521301883166304</v>
+        <v>0.4279451754041443</v>
       </c>
       <c r="J3">
-        <v>0.5213018831663041</v>
+        <v>0.4279451754041442</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>9.938741</v>
       </c>
       <c r="O3">
-        <v>0.3782346920846191</v>
+        <v>0.3337244291137108</v>
       </c>
       <c r="P3">
-        <v>0.3782346920846191</v>
+        <v>0.3337244291137108</v>
       </c>
       <c r="Q3">
-        <v>49.59205266135655</v>
+        <v>33.63072946467289</v>
       </c>
       <c r="R3">
-        <v>446.328473952209</v>
+        <v>302.676565182056</v>
       </c>
       <c r="S3">
-        <v>0.1971744572625391</v>
+        <v>0.1428157593537148</v>
       </c>
       <c r="T3">
-        <v>0.1971744572625391</v>
+        <v>0.1428157593537148</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>14.96931633333333</v>
+        <v>10.15140533333333</v>
       </c>
       <c r="H4">
-        <v>44.907949</v>
+        <v>30.454216</v>
       </c>
       <c r="I4">
-        <v>0.521301883166304</v>
+        <v>0.4279451754041443</v>
       </c>
       <c r="J4">
-        <v>0.5213018831663041</v>
+        <v>0.4279451754041442</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.265607333333333</v>
+        <v>3.148025333333333</v>
       </c>
       <c r="N4">
-        <v>3.796822</v>
+        <v>9.444075999999999</v>
       </c>
       <c r="O4">
-        <v>0.1444941366386454</v>
+        <v>0.317114498869273</v>
       </c>
       <c r="P4">
-        <v>0.1444941366386454</v>
+        <v>0.3171144988692729</v>
       </c>
       <c r="Q4">
-        <v>18.94527652645311</v>
+        <v>31.95688115826844</v>
       </c>
       <c r="R4">
-        <v>170.507488738078</v>
+        <v>287.611930424416</v>
       </c>
       <c r="S4">
-        <v>0.07532506553621511</v>
+        <v>0.1357076198418083</v>
       </c>
       <c r="T4">
-        <v>0.07532506553621512</v>
+        <v>0.1357076198418083</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>14.96931633333333</v>
+        <v>10.15140533333333</v>
       </c>
       <c r="H5">
-        <v>44.907949</v>
+        <v>30.454216</v>
       </c>
       <c r="I5">
-        <v>0.521301883166304</v>
+        <v>0.4279451754041443</v>
       </c>
       <c r="J5">
-        <v>0.5213018831663041</v>
+        <v>0.4279451754041442</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.223766666666667</v>
+        <v>1.770368</v>
       </c>
       <c r="N5">
-        <v>6.6713</v>
+        <v>5.311104</v>
       </c>
       <c r="O5">
-        <v>0.253886996482162</v>
+        <v>0.178336989600951</v>
       </c>
       <c r="P5">
-        <v>0.2538869964821621</v>
+        <v>0.178336989600951</v>
       </c>
       <c r="Q5">
-        <v>33.28826668485556</v>
+        <v>17.97172315716267</v>
       </c>
       <c r="R5">
-        <v>299.5944001637</v>
+        <v>161.745508414464</v>
       </c>
       <c r="S5">
-        <v>0.1323517693775879</v>
+        <v>0.07631845429582605</v>
       </c>
       <c r="T5">
-        <v>0.1323517693775879</v>
+        <v>0.07631845429582602</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.459653666666668</v>
+        <v>7.459653666666667</v>
       </c>
       <c r="H6">
         <v>22.378961</v>
       </c>
       <c r="I6">
-        <v>0.2597801674844976</v>
+        <v>0.3144710207121242</v>
       </c>
       <c r="J6">
-        <v>0.2597801674844976</v>
+        <v>0.3144710207121242</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.956596</v>
+        <v>1.695786666666667</v>
       </c>
       <c r="N6">
-        <v>5.869788</v>
+        <v>5.087359999999999</v>
       </c>
       <c r="O6">
-        <v>0.2233841747945733</v>
+        <v>0.1708240824160653</v>
       </c>
       <c r="P6">
-        <v>0.2233841747945733</v>
+        <v>0.1708240824160653</v>
       </c>
       <c r="Q6">
-        <v>14.59552852558534</v>
+        <v>12.64998122588444</v>
       </c>
       <c r="R6">
-        <v>131.359756730268</v>
+        <v>113.84983103296</v>
       </c>
       <c r="S6">
-        <v>0.05803077834152055</v>
+        <v>0.05371922355959208</v>
       </c>
       <c r="T6">
-        <v>0.05803077834152055</v>
+        <v>0.05371922355959207</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>7.459653666666668</v>
+        <v>7.459653666666667</v>
       </c>
       <c r="H7">
         <v>22.378961</v>
       </c>
       <c r="I7">
-        <v>0.2597801674844976</v>
+        <v>0.3144710207121242</v>
       </c>
       <c r="J7">
-        <v>0.2597801674844976</v>
+        <v>0.3144710207121242</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>9.938741</v>
       </c>
       <c r="O7">
-        <v>0.3782346920846191</v>
+        <v>0.3337244291137108</v>
       </c>
       <c r="P7">
-        <v>0.3782346920846191</v>
+        <v>0.3337244291137108</v>
       </c>
       <c r="Q7">
-        <v>24.71318858090012</v>
+        <v>24.71318858090011</v>
       </c>
       <c r="R7">
-        <v>222.4186972281011</v>
+        <v>222.418697228101</v>
       </c>
       <c r="S7">
-        <v>0.09825787165818974</v>
+        <v>0.1049466618599596</v>
       </c>
       <c r="T7">
-        <v>0.09825787165818974</v>
+        <v>0.1049466618599596</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>7.459653666666668</v>
+        <v>7.459653666666667</v>
       </c>
       <c r="H8">
         <v>22.378961</v>
       </c>
       <c r="I8">
-        <v>0.2597801674844976</v>
+        <v>0.3144710207121242</v>
       </c>
       <c r="J8">
-        <v>0.2597801674844976</v>
+        <v>0.3144710207121242</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.265607333333333</v>
+        <v>3.148025333333333</v>
       </c>
       <c r="N8">
-        <v>3.796822</v>
+        <v>9.444075999999999</v>
       </c>
       <c r="O8">
-        <v>0.1444941366386454</v>
+        <v>0.317114498869273</v>
       </c>
       <c r="P8">
-        <v>0.1444941366386454</v>
+        <v>0.3171144988692729</v>
       </c>
       <c r="Q8">
-        <v>9.440992384660223</v>
+        <v>23.48317872055955</v>
       </c>
       <c r="R8">
-        <v>84.96893146194201</v>
+        <v>211.348608485036</v>
       </c>
       <c r="S8">
-        <v>0.03753671101651519</v>
+        <v>0.09972332014203401</v>
       </c>
       <c r="T8">
-        <v>0.03753671101651519</v>
+        <v>0.099723320142034</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>7.459653666666668</v>
+        <v>7.459653666666667</v>
       </c>
       <c r="H9">
         <v>22.378961</v>
       </c>
       <c r="I9">
-        <v>0.2597801674844976</v>
+        <v>0.3144710207121242</v>
       </c>
       <c r="J9">
-        <v>0.2597801674844976</v>
+        <v>0.3144710207121242</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.223766666666667</v>
+        <v>1.770368</v>
       </c>
       <c r="N9">
-        <v>6.6713</v>
+        <v>5.311104</v>
       </c>
       <c r="O9">
-        <v>0.253886996482162</v>
+        <v>0.178336989600951</v>
       </c>
       <c r="P9">
-        <v>0.2538869964821621</v>
+        <v>0.178336989600951</v>
       </c>
       <c r="Q9">
-        <v>16.58852916881111</v>
+        <v>13.20633214254934</v>
       </c>
       <c r="R9">
-        <v>149.2967625193</v>
+        <v>118.856989282944</v>
       </c>
       <c r="S9">
-        <v>0.06595480646827211</v>
+        <v>0.05608181515053855</v>
       </c>
       <c r="T9">
-        <v>0.06595480646827212</v>
+        <v>0.05608181515053854</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.628561</v>
+        <v>2.030652666666667</v>
       </c>
       <c r="H10">
-        <v>10.885683</v>
+        <v>6.091958</v>
       </c>
       <c r="I10">
-        <v>0.1263635319317616</v>
+        <v>0.08560470034312097</v>
       </c>
       <c r="J10">
-        <v>0.1263635319317616</v>
+        <v>0.08560470034312095</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.956596</v>
+        <v>1.695786666666667</v>
       </c>
       <c r="N10">
-        <v>5.869788</v>
+        <v>5.087359999999999</v>
       </c>
       <c r="O10">
-        <v>0.2233841747945733</v>
+        <v>0.1708240824160653</v>
       </c>
       <c r="P10">
-        <v>0.2233841747945733</v>
+        <v>0.1708240824160653</v>
       </c>
       <c r="Q10">
-        <v>7.099627938356</v>
+        <v>3.443553716764444</v>
       </c>
       <c r="R10">
-        <v>63.896651445204</v>
+        <v>30.99198345088</v>
       </c>
       <c r="S10">
-        <v>0.02822761330470428</v>
+        <v>0.01462334438661587</v>
       </c>
       <c r="T10">
-        <v>0.02822761330470428</v>
+        <v>0.01462334438661587</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.628561</v>
+        <v>2.030652666666667</v>
       </c>
       <c r="H11">
-        <v>10.885683</v>
+        <v>6.091958</v>
       </c>
       <c r="I11">
-        <v>0.1263635319317616</v>
+        <v>0.08560470034312097</v>
       </c>
       <c r="J11">
-        <v>0.1263635319317616</v>
+        <v>0.08560470034312095</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>9.938741</v>
       </c>
       <c r="O11">
-        <v>0.3782346920846191</v>
+        <v>0.3337244291137108</v>
       </c>
       <c r="P11">
-        <v>0.3782346920846191</v>
+        <v>0.3337244291137108</v>
       </c>
       <c r="Q11">
-        <v>12.02110932723367</v>
+        <v>6.727376971653111</v>
       </c>
       <c r="R11">
-        <v>108.189983945103</v>
+        <v>60.546392744878</v>
       </c>
       <c r="S11">
-        <v>0.04779507159093479</v>
+        <v>0.02856837975145832</v>
       </c>
       <c r="T11">
-        <v>0.04779507159093479</v>
+        <v>0.02856837975145832</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.628561</v>
+        <v>2.030652666666667</v>
       </c>
       <c r="H12">
-        <v>10.885683</v>
+        <v>6.091958</v>
       </c>
       <c r="I12">
-        <v>0.1263635319317616</v>
+        <v>0.08560470034312097</v>
       </c>
       <c r="J12">
-        <v>0.1263635319317616</v>
+        <v>0.08560470034312095</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.265607333333333</v>
+        <v>3.148025333333333</v>
       </c>
       <c r="N12">
-        <v>3.796822</v>
+        <v>9.444075999999999</v>
       </c>
       <c r="O12">
-        <v>0.1444941366386454</v>
+        <v>0.317114498869273</v>
       </c>
       <c r="P12">
-        <v>0.1444941366386454</v>
+        <v>0.3171144988692729</v>
       </c>
       <c r="Q12">
-        <v>4.592333411047333</v>
+        <v>6.392546037867555</v>
       </c>
       <c r="R12">
-        <v>41.331000699426</v>
+        <v>57.53291434080799</v>
       </c>
       <c r="S12">
-        <v>0.0182587894490898</v>
+        <v>0.02714649165016308</v>
       </c>
       <c r="T12">
-        <v>0.0182587894490898</v>
+        <v>0.02714649165016307</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.628561</v>
+        <v>2.030652666666667</v>
       </c>
       <c r="H13">
-        <v>10.885683</v>
+        <v>6.091958</v>
       </c>
       <c r="I13">
-        <v>0.1263635319317616</v>
+        <v>0.08560470034312097</v>
       </c>
       <c r="J13">
-        <v>0.1263635319317616</v>
+        <v>0.08560470034312095</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.223766666666667</v>
+        <v>1.770368</v>
       </c>
       <c r="N13">
-        <v>6.6713</v>
+        <v>5.311104</v>
       </c>
       <c r="O13">
-        <v>0.253886996482162</v>
+        <v>0.178336989600951</v>
       </c>
       <c r="P13">
-        <v>0.2538869964821621</v>
+        <v>0.178336989600951</v>
       </c>
       <c r="Q13">
-        <v>8.069072999766666</v>
+        <v>3.595002500181334</v>
       </c>
       <c r="R13">
-        <v>72.6216569979</v>
+        <v>32.355022501632</v>
       </c>
       <c r="S13">
-        <v>0.03208205758703273</v>
+        <v>0.01526648455488369</v>
       </c>
       <c r="T13">
-        <v>0.03208205758703273</v>
+        <v>0.01526648455488369</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.657723666666667</v>
+        <v>4.079563666666666</v>
       </c>
       <c r="H14">
-        <v>7.973171</v>
+        <v>12.238691</v>
       </c>
       <c r="I14">
-        <v>0.09255441741743679</v>
+        <v>0.1719791035406106</v>
       </c>
       <c r="J14">
-        <v>0.09255441741743679</v>
+        <v>0.1719791035406106</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.956596</v>
+        <v>1.695786666666667</v>
       </c>
       <c r="N14">
-        <v>5.869788</v>
+        <v>5.087359999999999</v>
       </c>
       <c r="O14">
-        <v>0.2233841747945733</v>
+        <v>0.1708240824160653</v>
       </c>
       <c r="P14">
-        <v>0.2233841747945733</v>
+        <v>0.1708240824160653</v>
       </c>
       <c r="Q14">
-        <v>5.200091495305333</v>
+        <v>6.91806967175111</v>
       </c>
       <c r="R14">
-        <v>46.800823457748</v>
+        <v>62.26262704575999</v>
       </c>
       <c r="S14">
-        <v>0.0206751921583866</v>
+        <v>0.0293781725570623</v>
       </c>
       <c r="T14">
-        <v>0.0206751921583866</v>
+        <v>0.0293781725570623</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.657723666666667</v>
+        <v>4.079563666666666</v>
       </c>
       <c r="H15">
-        <v>7.973171</v>
+        <v>12.238691</v>
       </c>
       <c r="I15">
-        <v>0.09255441741743679</v>
+        <v>0.1719791035406106</v>
       </c>
       <c r="J15">
-        <v>0.09255441741743679</v>
+        <v>0.1719791035406106</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>9.938741</v>
       </c>
       <c r="O15">
-        <v>0.3782346920846191</v>
+        <v>0.3337244291137108</v>
       </c>
       <c r="P15">
-        <v>0.3782346920846191</v>
+        <v>0.3337244291137108</v>
       </c>
       <c r="Q15">
-        <v>8.804809057523444</v>
+        <v>13.51524222533678</v>
       </c>
       <c r="R15">
-        <v>79.243281517711</v>
+        <v>121.637180028031</v>
       </c>
       <c r="S15">
-        <v>0.03500729157295551</v>
+        <v>0.05739362814857803</v>
       </c>
       <c r="T15">
-        <v>0.03500729157295551</v>
+        <v>0.05739362814857803</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.657723666666667</v>
+        <v>4.079563666666666</v>
       </c>
       <c r="H16">
-        <v>7.973171</v>
+        <v>12.238691</v>
       </c>
       <c r="I16">
-        <v>0.09255441741743679</v>
+        <v>0.1719791035406106</v>
       </c>
       <c r="J16">
-        <v>0.09255441741743679</v>
+        <v>0.1719791035406106</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.265607333333333</v>
+        <v>3.148025333333333</v>
       </c>
       <c r="N16">
-        <v>3.796822</v>
+        <v>9.444075999999999</v>
       </c>
       <c r="O16">
-        <v>0.1444941366386454</v>
+        <v>0.317114498869273</v>
       </c>
       <c r="P16">
-        <v>0.1444941366386454</v>
+        <v>0.3171144988692729</v>
       </c>
       <c r="Q16">
-        <v>3.363634562506889</v>
+        <v>12.84256977161289</v>
       </c>
       <c r="R16">
-        <v>30.272711062562</v>
+        <v>115.583127944516</v>
       </c>
       <c r="S16">
-        <v>0.01337357063682534</v>
+        <v>0.05453706723526755</v>
       </c>
       <c r="T16">
-        <v>0.01337357063682534</v>
+        <v>0.05453706723526754</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.657723666666667</v>
+        <v>4.079563666666666</v>
       </c>
       <c r="H17">
-        <v>7.973171</v>
+        <v>12.238691</v>
       </c>
       <c r="I17">
-        <v>0.09255441741743679</v>
+        <v>0.1719791035406106</v>
       </c>
       <c r="J17">
-        <v>0.09255441741743679</v>
+        <v>0.1719791035406106</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.223766666666667</v>
+        <v>1.770368</v>
       </c>
       <c r="N17">
-        <v>6.6713</v>
+        <v>5.311104</v>
       </c>
       <c r="O17">
-        <v>0.253886996482162</v>
+        <v>0.178336989600951</v>
       </c>
       <c r="P17">
-        <v>0.2538869964821621</v>
+        <v>0.178336989600951</v>
       </c>
       <c r="Q17">
-        <v>5.910157299144444</v>
+        <v>7.222328969429333</v>
       </c>
       <c r="R17">
-        <v>53.1914156923</v>
+        <v>65.000960724864</v>
       </c>
       <c r="S17">
-        <v>0.02349836304926933</v>
+        <v>0.03067023559970276</v>
       </c>
       <c r="T17">
-        <v>0.02349836304926933</v>
+        <v>0.03067023559970276</v>
       </c>
     </row>
   </sheetData>
